--- a/Ideen/Kriterienkataloge.xlsx
+++ b/Ideen/Kriterienkataloge.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\thesis-voss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\thesis-voss\Ideen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{336BC6F5-83E1-42A1-9969-543E00C3698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4D442-05AE-42FE-99E4-8022484C7999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6B06FD3-6CF6-4D4E-971F-99163BC9DD3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E6B06FD3-6CF6-4D4E-971F-99163BC9DD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>Aufwand für ML Algorithmus</t>
   </si>
@@ -159,14 +161,136 @@
   </si>
   <si>
     <t xml:space="preserve">existiert </t>
+  </si>
+  <si>
+    <t>Typ des ML-Modells</t>
+  </si>
+  <si>
+    <t>Leicht</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Sehr hoch</t>
+  </si>
+  <si>
+    <t>Familienmitgliedern helfen</t>
+  </si>
+  <si>
+    <t>mittel/ hoch</t>
+  </si>
+  <si>
+    <t>existiert?</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Aufwand Klassifizierung</t>
+  </si>
+  <si>
+    <t>Aufwand Erkennung</t>
+  </si>
+  <si>
+    <t>Aufwand Generierung</t>
+  </si>
+  <si>
+    <t>Aufwand Vorhersage</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Reinforcementlearning</t>
+  </si>
+  <si>
+    <t>Überwacht</t>
+  </si>
+  <si>
+    <t>Unüberwacht</t>
+  </si>
+  <si>
+    <t>Überwacht (Klasse, Regression)</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Eingabemodalität</t>
+  </si>
+  <si>
+    <t>Ausgabemodalität</t>
+  </si>
+  <si>
+    <t>Lernverfahren</t>
+  </si>
+  <si>
+    <t>Klassifikation</t>
+  </si>
+  <si>
+    <t>Clusteranalyse</t>
+  </si>
+  <si>
+    <t>Outlierdetection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klasse </t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>Generiert</t>
+  </si>
+  <si>
+    <t>Fachlich</t>
+  </si>
+  <si>
+    <t>Didaktik</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Inhaltsbezogene Tabelle</t>
+  </si>
+  <si>
+    <t>So sucht man den Task aus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,8 +318,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -510,25 +659,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA04CAD-108C-4C8C-BD48-55AACE0884D6}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -545,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -585,7 +735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -605,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -625,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -647,8 +797,11 @@
       <c r="H8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -673,8 +826,11 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -699,8 +855,11 @@
       <c r="H10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -725,8 +884,11 @@
       <c r="H11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -751,8 +913,11 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -777,8 +942,11 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -797,8 +965,319 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42286D1-FA21-4BA9-B612-C6E3EEE93936}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ideen/Kriterienkataloge.xlsx
+++ b/Ideen/Kriterienkataloge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\thesis-voss\Ideen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4D442-05AE-42FE-99E4-8022484C7999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62AB427-D86A-4B3A-B0CD-D5C9233C3F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E6B06FD3-6CF6-4D4E-971F-99163BC9DD3C}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,32 +317,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,120 +964,113 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1097,7 +1085,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,40 +1101,40 @@
       <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
@@ -1164,14 +1152,14 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="6"/>
       <c r="M3" t="s">
         <v>67</v>
       </c>
@@ -1197,7 +1185,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B5" t="s">
@@ -1205,13 +1193,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B8" t="s">
@@ -1219,30 +1207,30 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1269,14 +1257,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ideen/Kriterienkataloge.xlsx
+++ b/Ideen/Kriterienkataloge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\thesis-voss\Ideen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62AB427-D86A-4B3A-B0CD-D5C9233C3F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25828C2C-BAD8-4C25-8B80-985DDE2DB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E6B06FD3-6CF6-4D4E-971F-99163BC9DD3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6B06FD3-6CF6-4D4E-971F-99163BC9DD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -297,15 +297,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -313,11 +337,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -328,18 +367,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -656,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA04CAD-108C-4C8C-BD48-55AACE0884D6}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,174 +1128,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42286D1-FA21-4BA9-B612-C6E3EEE93936}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" style="4"/>
+    <col min="9" max="9" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="4"/>
+    <col min="11" max="11" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
